--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="331">
   <si>
     <t>Name</t>
   </si>
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F89" workbookViewId="0">
-      <selection activeCell="O107" sqref="O107"/>
+      <selection activeCell="P107" sqref="P107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -8795,7 +8795,9 @@
       <c r="O102" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P102" s="6"/>
+      <c r="P102" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
       <c r="S102" s="6"/>
@@ -8863,7 +8865,9 @@
       <c r="O103" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P103" s="6"/>
+      <c r="P103" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="Q103" s="6"/>
       <c r="R103" s="6"/>
       <c r="S103" s="6"/>
@@ -8931,7 +8935,9 @@
       <c r="O104" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P104" s="6"/>
+      <c r="P104" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="Q104" s="6"/>
       <c r="R104" s="6"/>
       <c r="S104" s="6"/>
@@ -8999,7 +9005,9 @@
       <c r="O105" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P105" s="6"/>
+      <c r="P105" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
       <c r="S105" s="6"/>
@@ -9064,10 +9072,12 @@
       <c r="N106" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O106" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P106" s="6"/>
+      <c r="O106" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P106" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="Q106" s="6"/>
       <c r="R106" s="6"/>
       <c r="S106" s="6"/>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="331">
   <si>
     <t>Name</t>
   </si>
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F89" workbookViewId="0">
-      <selection activeCell="P107" sqref="P107"/>
+    <sheetView tabSelected="1" topLeftCell="T89" workbookViewId="0">
+      <selection activeCell="U107" sqref="U107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -8798,13 +8798,21 @@
       <c r="P102" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q102" s="6"/>
-      <c r="R102" s="6"/>
-      <c r="S102" s="6"/>
+      <c r="Q102" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="T102" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U102" s="6"/>
+      <c r="U102" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V102" s="6"/>
       <c r="W102" s="6"/>
       <c r="X102" s="6"/>
@@ -8868,13 +8876,21 @@
       <c r="P103" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q103" s="6"/>
-      <c r="R103" s="6"/>
-      <c r="S103" s="6"/>
+      <c r="Q103" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R103" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S103" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="T103" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U103" s="6"/>
+      <c r="U103" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V103" s="6"/>
       <c r="W103" s="6"/>
       <c r="X103" s="6"/>
@@ -8938,13 +8954,21 @@
       <c r="P104" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q104" s="6"/>
-      <c r="R104" s="6"/>
-      <c r="S104" s="6"/>
+      <c r="Q104" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R104" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S104" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="T104" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U104" s="6"/>
+      <c r="U104" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V104" s="6"/>
       <c r="W104" s="6"/>
       <c r="X104" s="6"/>
@@ -9008,13 +9032,21 @@
       <c r="P105" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q105" s="6"/>
-      <c r="R105" s="6"/>
-      <c r="S105" s="6"/>
+      <c r="Q105" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R105" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S105" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="T105" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U105" s="6"/>
+      <c r="U105" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V105" s="6"/>
       <c r="W105" s="6"/>
       <c r="X105" s="6"/>
@@ -9075,16 +9107,24 @@
       <c r="O106" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P106" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q106" s="6"/>
-      <c r="R106" s="6"/>
-      <c r="S106" s="6"/>
+      <c r="P106" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q106" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R106" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S106" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="T106" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U106" s="6"/>
+      <c r="U106" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="V106" s="6"/>
       <c r="W106" s="6"/>
       <c r="X106" s="6"/>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="331">
   <si>
     <t>Name</t>
   </si>
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T89" workbookViewId="0">
-      <selection activeCell="U107" sqref="U107"/>
+    <sheetView tabSelected="1" topLeftCell="AA89" workbookViewId="0">
+      <selection activeCell="AB107" sqref="AB107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -8813,15 +8813,27 @@
       <c r="U102" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="V102" s="6"/>
-      <c r="W102" s="6"/>
-      <c r="X102" s="6"/>
-      <c r="Y102" s="6"/>
-      <c r="Z102" s="6"/>
+      <c r="V102" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W102" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X102" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y102" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z102" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AA102" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB102" s="6"/>
+      <c r="AB102" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AC102" s="6"/>
       <c r="AD102" s="6"/>
       <c r="AE102" s="6"/>
@@ -8891,15 +8903,27 @@
       <c r="U103" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="V103" s="6"/>
-      <c r="W103" s="6"/>
-      <c r="X103" s="6"/>
-      <c r="Y103" s="6"/>
-      <c r="Z103" s="6"/>
+      <c r="V103" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W103" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X103" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y103" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z103" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AA103" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB103" s="6"/>
+      <c r="AB103" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AC103" s="6"/>
       <c r="AD103" s="6"/>
       <c r="AE103" s="6"/>
@@ -8969,15 +8993,27 @@
       <c r="U104" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="V104" s="6"/>
-      <c r="W104" s="6"/>
-      <c r="X104" s="6"/>
-      <c r="Y104" s="6"/>
-      <c r="Z104" s="6"/>
+      <c r="V104" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X104" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y104" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z104" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AA104" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB104" s="6"/>
+      <c r="AB104" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AC104" s="6"/>
       <c r="AD104" s="6"/>
       <c r="AE104" s="6"/>
@@ -9047,10 +9083,18 @@
       <c r="U105" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="V105" s="6"/>
-      <c r="W105" s="6"/>
-      <c r="X105" s="6"/>
-      <c r="Y105" s="6"/>
+      <c r="V105" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W105" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X105" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y105" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="Z105" s="6"/>
       <c r="AA105" s="5" t="s">
         <v>3</v>
@@ -9126,7 +9170,9 @@
         <v>6</v>
       </c>
       <c r="V106" s="6"/>
-      <c r="W106" s="6"/>
+      <c r="W106" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="X106" s="6"/>
       <c r="Y106" s="6"/>
       <c r="Z106" s="6"/>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -8921,8 +8921,8 @@
       <c r="AA103" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB103" s="6" t="s">
-        <v>4</v>
+      <c r="AB103" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="AC103" s="6"/>
       <c r="AD103" s="6"/>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="331">
   <si>
     <t>Name</t>
   </si>
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA89" workbookViewId="0">
-      <selection activeCell="AB107" sqref="AB107"/>
+      <selection activeCell="AD107" sqref="AD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -8834,8 +8834,12 @@
       <c r="AB102" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AC102" s="6"/>
-      <c r="AD102" s="6"/>
+      <c r="AC102" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD102" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AE102" s="6"/>
       <c r="AF102" s="6"/>
     </row>
@@ -8924,8 +8928,12 @@
       <c r="AB103" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AC103" s="6"/>
-      <c r="AD103" s="6"/>
+      <c r="AC103" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD103" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="AE103" s="6"/>
       <c r="AF103" s="6"/>
     </row>
@@ -9014,8 +9022,12 @@
       <c r="AB104" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AC104" s="6"/>
-      <c r="AD104" s="6"/>
+      <c r="AC104" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD104" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AE104" s="6"/>
       <c r="AF104" s="6"/>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="331">
   <si>
     <t>Name</t>
   </si>
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA89" workbookViewId="0">
-      <selection activeCell="AD107" sqref="AD107"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -8840,8 +8840,12 @@
       <c r="AD102" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AE102" s="6"/>
-      <c r="AF102" s="6"/>
+      <c r="AE102" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF102" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
@@ -8934,8 +8938,12 @@
       <c r="AD103" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AE103" s="6"/>
-      <c r="AF103" s="6"/>
+      <c r="AE103" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF103" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
@@ -9028,8 +9036,12 @@
       <c r="AD104" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AE104" s="6"/>
-      <c r="AF104" s="6"/>
+      <c r="AE104" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF104" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
